--- a/classfiers/chain/welm/nearmiss/chain_welm_tanh_nearmiss_results.xlsx
+++ b/classfiers/chain/welm/nearmiss/chain_welm_tanh_nearmiss_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6086956521739131</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.8272727272727273</v>
       </c>
     </row>
     <row r="3">
@@ -482,35 +482,86 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4375</v>
+        <v>0.68</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.7371794871794872</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7467532467532467</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6451612903225806</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6493506493506493</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.4375</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.3043478260869565</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4920634920634921</v>
+      <c r="B7" t="n">
+        <v>0.5880000000000001</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.846103896103896</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6702443792766373</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7536496836496835</v>
       </c>
     </row>
   </sheetData>
